--- a/收費單_合併.xlsx
+++ b/收費單_合併.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="merged_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="merged_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="merged_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="merged_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="merged_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="收費單_列印_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="收費單_列印_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="收費單_列印_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="收費單_列印_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="收費單_列印_4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,7 +52,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -74,20 +74,69 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,387 +511,387 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>一年忠班  呂彥臻</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>二年孝班  王大同</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>三年仁班  楊小明</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="26" ht="22" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="27" ht="22" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+    </row>
+    <row r="28" ht="22" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+    </row>
+    <row r="29" ht="22" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+    </row>
+    <row r="30" ht="22" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="22" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
@@ -882,387 +931,387 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>四年愛班  劉大象</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>五年信班  陳中一</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>六年義班  孫二</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="26" ht="22" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="27" ht="22" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+    </row>
+    <row r="28" ht="22" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+    </row>
+    <row r="29" ht="22" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+    </row>
+    <row r="30" ht="22" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="22" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
@@ -1302,387 +1351,387 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>一年忠班  呂彥臻1</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>二年孝班  王大同1</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>三年仁班  楊小明1</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="26" ht="22" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="27" ht="22" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+    </row>
+    <row r="28" ht="22" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+    </row>
+    <row r="29" ht="22" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+    </row>
+    <row r="30" ht="22" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="22" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
@@ -1722,387 +1771,387 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>四年愛班  劉大象1</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>五年信班  陳中一1</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>六年義班  孫二1</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
+    <row r="26" ht="22" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="2" t="inlineStr">
+    <row r="27" ht="22" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+    </row>
+    <row r="28" ht="22" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+    </row>
+    <row r="29" ht="22" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+    </row>
+    <row r="30" ht="22" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="22" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
@@ -2142,260 +2191,260 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>一年忠班  呂彥臻2</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>二年孝班  王大同2</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>

--- a/收費單_合併.xlsx
+++ b/收費單_合併.xlsx
@@ -89,13 +89,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -489,42 +492,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -536,14 +539,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -551,14 +554,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -566,14 +569,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -581,14 +584,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -596,38 +599,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -646,42 +649,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -693,14 +696,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -708,14 +711,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -723,14 +726,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -738,14 +741,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -753,38 +756,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -803,42 +806,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -850,14 +853,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -865,14 +868,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -880,14 +883,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -895,14 +898,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -910,38 +913,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -999,42 +1002,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1046,14 +1049,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1061,14 +1064,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1076,14 +1079,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1091,14 +1094,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1106,38 +1109,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1156,42 +1159,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1203,14 +1206,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -1218,14 +1221,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -1233,14 +1236,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -1248,14 +1251,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -1263,38 +1266,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1313,42 +1316,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1360,14 +1363,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -1375,14 +1378,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -1390,14 +1393,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -1405,14 +1408,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -1420,38 +1423,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1509,42 +1512,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1556,14 +1559,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1571,14 +1574,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1586,14 +1589,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1601,14 +1604,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1616,38 +1619,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1666,42 +1669,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1713,14 +1716,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -1728,14 +1731,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -1743,14 +1746,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -1758,14 +1761,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -1773,38 +1776,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1857,42 +1860,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1904,14 +1907,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1919,14 +1922,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1934,14 +1937,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1949,14 +1952,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1964,38 +1967,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2014,42 +2017,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2061,14 +2064,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -2076,14 +2079,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -2091,14 +2094,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -2106,14 +2109,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -2121,38 +2124,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2171,42 +2174,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2218,14 +2221,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -2233,14 +2236,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -2248,14 +2251,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -2263,14 +2266,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -2278,38 +2281,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2367,42 +2370,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2414,14 +2417,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -2429,14 +2432,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -2444,14 +2447,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -2459,14 +2462,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -2474,38 +2477,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2524,42 +2527,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2571,14 +2574,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -2586,14 +2589,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -2601,14 +2604,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -2616,14 +2619,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -2631,38 +2634,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2681,42 +2684,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2728,14 +2731,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -2743,14 +2746,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -2758,14 +2761,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -2773,14 +2776,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -2788,38 +2791,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2877,42 +2880,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2924,14 +2927,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -2939,14 +2942,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -2954,14 +2957,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -2969,14 +2972,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -2984,38 +2987,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3034,42 +3037,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3081,14 +3084,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -3096,14 +3099,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -3111,14 +3114,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -3126,14 +3129,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -3141,38 +3144,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3191,42 +3194,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3238,14 +3241,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -3253,14 +3256,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -3268,14 +3271,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -3283,14 +3286,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -3298,38 +3301,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3387,42 +3390,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3434,14 +3437,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -3449,14 +3452,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -3464,14 +3467,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -3479,14 +3482,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -3494,38 +3497,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3544,42 +3547,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3591,14 +3594,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -3606,14 +3609,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -3621,14 +3624,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -3636,14 +3639,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -3651,38 +3654,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3701,42 +3704,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3748,14 +3751,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -3763,14 +3766,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -3778,14 +3781,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -3793,14 +3796,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -3808,38 +3811,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3897,42 +3900,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3944,14 +3947,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -3959,14 +3962,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -3974,14 +3977,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -3989,14 +3992,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -4004,38 +4007,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4054,42 +4057,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4101,14 +4104,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -4116,14 +4119,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -4131,14 +4134,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -4146,14 +4149,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -4161,38 +4164,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4211,42 +4214,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4258,14 +4261,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -4273,14 +4276,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -4288,14 +4291,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -4303,14 +4306,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -4318,38 +4321,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4407,42 +4410,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4454,14 +4457,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -4469,14 +4472,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -4484,14 +4487,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -4499,14 +4502,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -4514,38 +4517,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4564,42 +4567,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4611,14 +4614,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -4626,14 +4629,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -4641,14 +4644,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -4656,14 +4659,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -4671,38 +4674,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4721,42 +4724,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4768,14 +4771,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -4783,14 +4786,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -4798,14 +4801,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -4813,14 +4816,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -4828,38 +4831,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4917,42 +4920,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4964,14 +4967,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -4979,14 +4982,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -4994,14 +4997,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -5009,14 +5012,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -5024,38 +5027,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5074,42 +5077,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5121,14 +5124,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -5136,14 +5139,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -5151,14 +5154,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -5166,14 +5169,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -5181,38 +5184,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5231,42 +5234,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5278,14 +5281,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -5293,14 +5296,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -5308,14 +5311,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -5323,14 +5326,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -5338,38 +5341,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5427,42 +5430,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5474,14 +5477,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -5489,14 +5492,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -5504,14 +5507,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -5519,14 +5522,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -5534,38 +5537,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5584,42 +5587,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5631,14 +5634,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -5646,14 +5649,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -5661,14 +5664,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -5676,14 +5679,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -5691,38 +5694,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5741,42 +5744,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5788,14 +5791,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -5803,14 +5806,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -5818,14 +5821,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -5833,14 +5836,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -5848,38 +5851,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>

--- a/收費單_合併.xlsx
+++ b/收費單_合併.xlsx
@@ -47,7 +47,7 @@
     </font>
     <font>
       <name val="標楷體"/>
-      <sz val="12"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
